--- a/Data/Working_data/policy_index.xlsx
+++ b/Data/Working_data/policy_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>country</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>law_violence1</t>
-  </si>
-  <si>
-    <t>law_stress_no</t>
-  </si>
-  <si>
-    <t>law_harassment_no</t>
-  </si>
-  <si>
-    <t>law_violence_no</t>
   </si>
   <si>
     <t>law_stress_yes</t>
@@ -238,19 +229,10 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>35.0</v>
@@ -277,24 +259,15 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -324,21 +297,12 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N3" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
@@ -368,21 +332,12 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N4" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>3.0</v>
@@ -409,24 +364,15 @@
         <v>100.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>34.0</v>
@@ -458,19 +404,10 @@
       <c r="K6" t="n">
         <v>100.0</v>
       </c>
-      <c r="L6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>5.0</v>
@@ -497,24 +434,15 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>6.0</v>
@@ -546,19 +474,10 @@
       <c r="K8" t="n">
         <v>0.0</v>
       </c>
-      <c r="L8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>11.0</v>
@@ -590,19 +509,10 @@
       <c r="K9" t="n">
         <v>100.0</v>
       </c>
-      <c r="L9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>7.0</v>
@@ -634,19 +544,10 @@
       <c r="K10" t="n">
         <v>100.0</v>
       </c>
-      <c r="L10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>8.0</v>
@@ -673,24 +574,15 @@
         <v>100.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>12.0</v>
@@ -717,24 +609,15 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N12" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>26.0</v>
@@ -766,19 +649,10 @@
       <c r="K13" t="n">
         <v>100.0</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>9.0</v>
@@ -810,19 +684,10 @@
       <c r="K14" t="n">
         <v>100.0</v>
       </c>
-      <c r="L14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>10.0</v>
@@ -854,19 +719,10 @@
       <c r="K15" t="n">
         <v>100.0</v>
       </c>
-      <c r="L15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>4.0</v>
@@ -893,24 +749,15 @@
         <v>100.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>13.0</v>
@@ -937,24 +784,15 @@
         <v>100.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>14.0</v>
@@ -978,27 +816,18 @@
         <v>100.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N18" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>15.0</v>
@@ -1030,19 +859,10 @@
       <c r="K19" t="n">
         <v>100.0</v>
       </c>
-      <c r="L19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>17.0</v>
@@ -1069,24 +889,15 @@
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>18.0</v>
@@ -1118,19 +929,10 @@
       <c r="K21" t="n">
         <v>100.0</v>
       </c>
-      <c r="L21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>16.0</v>
@@ -1157,24 +959,15 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K22" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N22" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>29.0</v>
@@ -1201,24 +994,15 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N23" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
         <v>30.0</v>
@@ -1250,19 +1034,10 @@
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
         <v>19.0</v>
@@ -1289,24 +1064,15 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>20.0</v>
@@ -1338,19 +1104,10 @@
       <c r="K26" t="n">
         <v>100.0</v>
       </c>
-      <c r="L26" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>33.0</v>
@@ -1382,19 +1139,10 @@
       <c r="K27" t="n">
         <v>100.0</v>
       </c>
-      <c r="L27" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>21.0</v>
@@ -1426,19 +1174,10 @@
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="n">
         <v>22.0</v>
@@ -1470,19 +1209,10 @@
       <c r="K29" t="n">
         <v>100.0</v>
       </c>
-      <c r="L29" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
         <v>23.0</v>
@@ -1509,24 +1239,15 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N30" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="n">
         <v>31.0</v>
@@ -1558,19 +1279,10 @@
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
-      <c r="L31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
         <v>27.0</v>
@@ -1602,19 +1314,10 @@
       <c r="K32" t="n">
         <v>100.0</v>
       </c>
-      <c r="L32" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" t="n">
         <v>25.0</v>
@@ -1646,19 +1349,10 @@
       <c r="K33" t="n">
         <v>100.0</v>
       </c>
-      <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
         <v>24.0</v>
@@ -1685,24 +1379,15 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" t="n">
         <v>32.0</v>
@@ -1734,19 +1419,10 @@
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
-      <c r="L35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" t="n">
         <v>28.0</v>
@@ -1770,21 +1446,12 @@
         <v>100.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K36" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="N36" t="n">
         <v>100.0</v>
       </c>
     </row>
